--- a/templates/placeringsnycklar_julmarknad.xlsx
+++ b/templates/placeringsnycklar_julmarknad.xlsx
@@ -1,45 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atw10wp4\JupyterLab\Kyrkan\WebShopReport\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dokumente\Kyrkans dator\03_Marknader\Marknader 2024\Webshop\Back office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F53B35-8ABF-48D4-960B-79AD547A244C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB12B24-B3AD-41F1-AEC3-A3958CCF382B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kategorier julmarknad" sheetId="1" r:id="rId1"/>
+    <sheet name="Rutor för packlistor" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Kategorier julmarknad'!$A$2:$E$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Kategorier julmarknad'!$A$1:$E$53</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
   <si>
     <t>Område</t>
   </si>
@@ -156,12 +146,6 @@
   </si>
   <si>
     <t>Godis_div</t>
-  </si>
-  <si>
-    <t>Godis_restnoterad</t>
-  </si>
-  <si>
-    <t>Varor som kommer med bilen 30 nov</t>
   </si>
   <si>
     <t>Mat</t>
@@ -288,14 +272,44 @@
     <t>Böcker</t>
   </si>
   <si>
-    <t>Julmarknad 2023</t>
+    <t>Finska</t>
+  </si>
+  <si>
+    <t>Paulaner</t>
+  </si>
+  <si>
+    <t>Julmarknad 2024</t>
+  </si>
+  <si>
+    <t>Antal Påsar:</t>
+  </si>
+  <si>
+    <t>Semlor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sverige     Textil     Böcker    </t>
+  </si>
+  <si>
+    <t>Övervåningen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|__|        |__|         |__|      </t>
+  </si>
+  <si>
+    <t>Påsk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|__|      |__|         |__|      |__|    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Julpynt    Sverige    Textil      Böcker    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -452,10 +466,48 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF444444"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
     </font>
   </fonts>
   <fills count="9">
@@ -508,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -528,6 +580,160 @@
       </top>
       <bottom style="thin">
         <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,7 +759,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -606,26 +812,59 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Accent 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Accent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Accent 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Error" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Footnote" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="3" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="6" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Result" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Schlecht" xfId="4" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Überschrift 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="2" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -641,8 +880,57 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>275369</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BB67D5-1256-0061-308E-03D296D026AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286625" y="3486150"/>
+          <a:ext cx="6847619" cy="1000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -942,32 +1230,1055 @@
     <tabColor rgb="FF99CC00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMJ52"/>
+  <dimension ref="A1:AMJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="34.7265625" customWidth="1"/>
-    <col min="5" max="5" width="60.54296875" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="4.81640625" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
-    <col min="10" max="10" width="64.54296875" customWidth="1"/>
-    <col min="11" max="1023" width="11.1796875" customWidth="1"/>
-    <col min="1024" max="1024" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="60.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="64.5703125" customWidth="1"/>
+    <col min="11" max="1023" width="11.140625" customWidth="1"/>
+    <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:1024" ht="21">
+      <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1"/>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
+      <c r="CS1" s="1"/>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1"/>
+      <c r="CV1" s="1"/>
+      <c r="CW1" s="1"/>
+      <c r="CX1" s="1"/>
+      <c r="CY1" s="1"/>
+      <c r="CZ1" s="1"/>
+      <c r="DA1" s="1"/>
+      <c r="DB1" s="1"/>
+      <c r="DC1" s="1"/>
+      <c r="DD1" s="1"/>
+      <c r="DE1" s="1"/>
+      <c r="DF1" s="1"/>
+      <c r="DG1" s="1"/>
+      <c r="DH1" s="1"/>
+      <c r="DI1" s="1"/>
+      <c r="DJ1" s="1"/>
+      <c r="DK1" s="1"/>
+      <c r="DL1" s="1"/>
+      <c r="DM1" s="1"/>
+      <c r="DN1" s="1"/>
+      <c r="DO1" s="1"/>
+      <c r="DP1" s="1"/>
+      <c r="DQ1" s="1"/>
+      <c r="DR1" s="1"/>
+      <c r="DS1" s="1"/>
+      <c r="DT1" s="1"/>
+      <c r="DU1" s="1"/>
+      <c r="DV1" s="1"/>
+      <c r="DW1" s="1"/>
+      <c r="DX1" s="1"/>
+      <c r="DY1" s="1"/>
+      <c r="DZ1" s="1"/>
+      <c r="EA1" s="1"/>
+      <c r="EB1" s="1"/>
+      <c r="EC1" s="1"/>
+      <c r="ED1" s="1"/>
+      <c r="EE1" s="1"/>
+      <c r="EF1" s="1"/>
+      <c r="EG1" s="1"/>
+      <c r="EH1" s="1"/>
+      <c r="EI1" s="1"/>
+      <c r="EJ1" s="1"/>
+      <c r="EK1" s="1"/>
+      <c r="EL1" s="1"/>
+      <c r="EM1" s="1"/>
+      <c r="EN1" s="1"/>
+      <c r="EO1" s="1"/>
+      <c r="EP1" s="1"/>
+      <c r="EQ1" s="1"/>
+      <c r="ER1" s="1"/>
+      <c r="ES1" s="1"/>
+      <c r="ET1" s="1"/>
+      <c r="EU1" s="1"/>
+      <c r="EV1" s="1"/>
+      <c r="EW1" s="1"/>
+      <c r="EX1" s="1"/>
+      <c r="EY1" s="1"/>
+      <c r="EZ1" s="1"/>
+      <c r="FA1" s="1"/>
+      <c r="FB1" s="1"/>
+      <c r="FC1" s="1"/>
+      <c r="FD1" s="1"/>
+      <c r="FE1" s="1"/>
+      <c r="FF1" s="1"/>
+      <c r="FG1" s="1"/>
+      <c r="FH1" s="1"/>
+      <c r="FI1" s="1"/>
+      <c r="FJ1" s="1"/>
+      <c r="FK1" s="1"/>
+      <c r="FL1" s="1"/>
+      <c r="FM1" s="1"/>
+      <c r="FN1" s="1"/>
+      <c r="FO1" s="1"/>
+      <c r="FP1" s="1"/>
+      <c r="FQ1" s="1"/>
+      <c r="FR1" s="1"/>
+      <c r="FS1" s="1"/>
+      <c r="FT1" s="1"/>
+      <c r="FU1" s="1"/>
+      <c r="FV1" s="1"/>
+      <c r="FW1" s="1"/>
+      <c r="FX1" s="1"/>
+      <c r="FY1" s="1"/>
+      <c r="FZ1" s="1"/>
+      <c r="GA1" s="1"/>
+      <c r="GB1" s="1"/>
+      <c r="GC1" s="1"/>
+      <c r="GD1" s="1"/>
+      <c r="GE1" s="1"/>
+      <c r="GF1" s="1"/>
+      <c r="GG1" s="1"/>
+      <c r="GH1" s="1"/>
+      <c r="GI1" s="1"/>
+      <c r="GJ1" s="1"/>
+      <c r="GK1" s="1"/>
+      <c r="GL1" s="1"/>
+      <c r="GM1" s="1"/>
+      <c r="GN1" s="1"/>
+      <c r="GO1" s="1"/>
+      <c r="GP1" s="1"/>
+      <c r="GQ1" s="1"/>
+      <c r="GR1" s="1"/>
+      <c r="GS1" s="1"/>
+      <c r="GT1" s="1"/>
+      <c r="GU1" s="1"/>
+      <c r="GV1" s="1"/>
+      <c r="GW1" s="1"/>
+      <c r="GX1" s="1"/>
+      <c r="GY1" s="1"/>
+      <c r="GZ1" s="1"/>
+      <c r="HA1" s="1"/>
+      <c r="HB1" s="1"/>
+      <c r="HC1" s="1"/>
+      <c r="HD1" s="1"/>
+      <c r="HE1" s="1"/>
+      <c r="HF1" s="1"/>
+      <c r="HG1" s="1"/>
+      <c r="HH1" s="1"/>
+      <c r="HI1" s="1"/>
+      <c r="HJ1" s="1"/>
+      <c r="HK1" s="1"/>
+      <c r="HL1" s="1"/>
+      <c r="HM1" s="1"/>
+      <c r="HN1" s="1"/>
+      <c r="HO1" s="1"/>
+      <c r="HP1" s="1"/>
+      <c r="HQ1" s="1"/>
+      <c r="HR1" s="1"/>
+      <c r="HS1" s="1"/>
+      <c r="HT1" s="1"/>
+      <c r="HU1" s="1"/>
+      <c r="HV1" s="1"/>
+      <c r="HW1" s="1"/>
+      <c r="HX1" s="1"/>
+      <c r="HY1" s="1"/>
+      <c r="HZ1" s="1"/>
+      <c r="IA1" s="1"/>
+      <c r="IB1" s="1"/>
+      <c r="IC1" s="1"/>
+      <c r="ID1" s="1"/>
+      <c r="IE1" s="1"/>
+      <c r="IF1" s="1"/>
+      <c r="IG1" s="1"/>
+      <c r="IH1" s="1"/>
+      <c r="II1" s="1"/>
+      <c r="IJ1" s="1"/>
+      <c r="IK1" s="1"/>
+      <c r="IL1" s="1"/>
+      <c r="IM1" s="1"/>
+      <c r="IN1" s="1"/>
+      <c r="IO1" s="1"/>
+      <c r="IP1" s="1"/>
+      <c r="IQ1" s="1"/>
+      <c r="IR1" s="1"/>
+      <c r="IS1" s="1"/>
+      <c r="IT1" s="1"/>
+      <c r="IU1" s="1"/>
+      <c r="IV1" s="1"/>
+      <c r="IW1" s="1"/>
+      <c r="IX1" s="1"/>
+      <c r="IY1" s="1"/>
+      <c r="IZ1" s="1"/>
+      <c r="JA1" s="1"/>
+      <c r="JB1" s="1"/>
+      <c r="JC1" s="1"/>
+      <c r="JD1" s="1"/>
+      <c r="JE1" s="1"/>
+      <c r="JF1" s="1"/>
+      <c r="JG1" s="1"/>
+      <c r="JH1" s="1"/>
+      <c r="JI1" s="1"/>
+      <c r="JJ1" s="1"/>
+      <c r="JK1" s="1"/>
+      <c r="JL1" s="1"/>
+      <c r="JM1" s="1"/>
+      <c r="JN1" s="1"/>
+      <c r="JO1" s="1"/>
+      <c r="JP1" s="1"/>
+      <c r="JQ1" s="1"/>
+      <c r="JR1" s="1"/>
+      <c r="JS1" s="1"/>
+      <c r="JT1" s="1"/>
+      <c r="JU1" s="1"/>
+      <c r="JV1" s="1"/>
+      <c r="JW1" s="1"/>
+      <c r="JX1" s="1"/>
+      <c r="JY1" s="1"/>
+      <c r="JZ1" s="1"/>
+      <c r="KA1" s="1"/>
+      <c r="KB1" s="1"/>
+      <c r="KC1" s="1"/>
+      <c r="KD1" s="1"/>
+      <c r="KE1" s="1"/>
+      <c r="KF1" s="1"/>
+      <c r="KG1" s="1"/>
+      <c r="KH1" s="1"/>
+      <c r="KI1" s="1"/>
+      <c r="KJ1" s="1"/>
+      <c r="KK1" s="1"/>
+      <c r="KL1" s="1"/>
+      <c r="KM1" s="1"/>
+      <c r="KN1" s="1"/>
+      <c r="KO1" s="1"/>
+      <c r="KP1" s="1"/>
+      <c r="KQ1" s="1"/>
+      <c r="KR1" s="1"/>
+      <c r="KS1" s="1"/>
+      <c r="KT1" s="1"/>
+      <c r="KU1" s="1"/>
+      <c r="KV1" s="1"/>
+      <c r="KW1" s="1"/>
+      <c r="KX1" s="1"/>
+      <c r="KY1" s="1"/>
+      <c r="KZ1" s="1"/>
+      <c r="LA1" s="1"/>
+      <c r="LB1" s="1"/>
+      <c r="LC1" s="1"/>
+      <c r="LD1" s="1"/>
+      <c r="LE1" s="1"/>
+      <c r="LF1" s="1"/>
+      <c r="LG1" s="1"/>
+      <c r="LH1" s="1"/>
+      <c r="LI1" s="1"/>
+      <c r="LJ1" s="1"/>
+      <c r="LK1" s="1"/>
+      <c r="LL1" s="1"/>
+      <c r="LM1" s="1"/>
+      <c r="LN1" s="1"/>
+      <c r="LO1" s="1"/>
+      <c r="LP1" s="1"/>
+      <c r="LQ1" s="1"/>
+      <c r="LR1" s="1"/>
+      <c r="LS1" s="1"/>
+      <c r="LT1" s="1"/>
+      <c r="LU1" s="1"/>
+      <c r="LV1" s="1"/>
+      <c r="LW1" s="1"/>
+      <c r="LX1" s="1"/>
+      <c r="LY1" s="1"/>
+      <c r="LZ1" s="1"/>
+      <c r="MA1" s="1"/>
+      <c r="MB1" s="1"/>
+      <c r="MC1" s="1"/>
+      <c r="MD1" s="1"/>
+      <c r="ME1" s="1"/>
+      <c r="MF1" s="1"/>
+      <c r="MG1" s="1"/>
+      <c r="MH1" s="1"/>
+      <c r="MI1" s="1"/>
+      <c r="MJ1" s="1"/>
+      <c r="MK1" s="1"/>
+      <c r="ML1" s="1"/>
+      <c r="MM1" s="1"/>
+      <c r="MN1" s="1"/>
+      <c r="MO1" s="1"/>
+      <c r="MP1" s="1"/>
+      <c r="MQ1" s="1"/>
+      <c r="MR1" s="1"/>
+      <c r="MS1" s="1"/>
+      <c r="MT1" s="1"/>
+      <c r="MU1" s="1"/>
+      <c r="MV1" s="1"/>
+      <c r="MW1" s="1"/>
+      <c r="MX1" s="1"/>
+      <c r="MY1" s="1"/>
+      <c r="MZ1" s="1"/>
+      <c r="NA1" s="1"/>
+      <c r="NB1" s="1"/>
+      <c r="NC1" s="1"/>
+      <c r="ND1" s="1"/>
+      <c r="NE1" s="1"/>
+      <c r="NF1" s="1"/>
+      <c r="NG1" s="1"/>
+      <c r="NH1" s="1"/>
+      <c r="NI1" s="1"/>
+      <c r="NJ1" s="1"/>
+      <c r="NK1" s="1"/>
+      <c r="NL1" s="1"/>
+      <c r="NM1" s="1"/>
+      <c r="NN1" s="1"/>
+      <c r="NO1" s="1"/>
+      <c r="NP1" s="1"/>
+      <c r="NQ1" s="1"/>
+      <c r="NR1" s="1"/>
+      <c r="NS1" s="1"/>
+      <c r="NT1" s="1"/>
+      <c r="NU1" s="1"/>
+      <c r="NV1" s="1"/>
+      <c r="NW1" s="1"/>
+      <c r="NX1" s="1"/>
+      <c r="NY1" s="1"/>
+      <c r="NZ1" s="1"/>
+      <c r="OA1" s="1"/>
+      <c r="OB1" s="1"/>
+      <c r="OC1" s="1"/>
+      <c r="OD1" s="1"/>
+      <c r="OE1" s="1"/>
+      <c r="OF1" s="1"/>
+      <c r="OG1" s="1"/>
+      <c r="OH1" s="1"/>
+      <c r="OI1" s="1"/>
+      <c r="OJ1" s="1"/>
+      <c r="OK1" s="1"/>
+      <c r="OL1" s="1"/>
+      <c r="OM1" s="1"/>
+      <c r="ON1" s="1"/>
+      <c r="OO1" s="1"/>
+      <c r="OP1" s="1"/>
+      <c r="OQ1" s="1"/>
+      <c r="OR1" s="1"/>
+      <c r="OS1" s="1"/>
+      <c r="OT1" s="1"/>
+      <c r="OU1" s="1"/>
+      <c r="OV1" s="1"/>
+      <c r="OW1" s="1"/>
+      <c r="OX1" s="1"/>
+      <c r="OY1" s="1"/>
+      <c r="OZ1" s="1"/>
+      <c r="PA1" s="1"/>
+      <c r="PB1" s="1"/>
+      <c r="PC1" s="1"/>
+      <c r="PD1" s="1"/>
+      <c r="PE1" s="1"/>
+      <c r="PF1" s="1"/>
+      <c r="PG1" s="1"/>
+      <c r="PH1" s="1"/>
+      <c r="PI1" s="1"/>
+      <c r="PJ1" s="1"/>
+      <c r="PK1" s="1"/>
+      <c r="PL1" s="1"/>
+      <c r="PM1" s="1"/>
+      <c r="PN1" s="1"/>
+      <c r="PO1" s="1"/>
+      <c r="PP1" s="1"/>
+      <c r="PQ1" s="1"/>
+      <c r="PR1" s="1"/>
+      <c r="PS1" s="1"/>
+      <c r="PT1" s="1"/>
+      <c r="PU1" s="1"/>
+      <c r="PV1" s="1"/>
+      <c r="PW1" s="1"/>
+      <c r="PX1" s="1"/>
+      <c r="PY1" s="1"/>
+      <c r="PZ1" s="1"/>
+      <c r="QA1" s="1"/>
+      <c r="QB1" s="1"/>
+      <c r="QC1" s="1"/>
+      <c r="QD1" s="1"/>
+      <c r="QE1" s="1"/>
+      <c r="QF1" s="1"/>
+      <c r="QG1" s="1"/>
+      <c r="QH1" s="1"/>
+      <c r="QI1" s="1"/>
+      <c r="QJ1" s="1"/>
+      <c r="QK1" s="1"/>
+      <c r="QL1" s="1"/>
+      <c r="QM1" s="1"/>
+      <c r="QN1" s="1"/>
+      <c r="QO1" s="1"/>
+      <c r="QP1" s="1"/>
+      <c r="QQ1" s="1"/>
+      <c r="QR1" s="1"/>
+      <c r="QS1" s="1"/>
+      <c r="QT1" s="1"/>
+      <c r="QU1" s="1"/>
+      <c r="QV1" s="1"/>
+      <c r="QW1" s="1"/>
+      <c r="QX1" s="1"/>
+      <c r="QY1" s="1"/>
+      <c r="QZ1" s="1"/>
+      <c r="RA1" s="1"/>
+      <c r="RB1" s="1"/>
+      <c r="RC1" s="1"/>
+      <c r="RD1" s="1"/>
+      <c r="RE1" s="1"/>
+      <c r="RF1" s="1"/>
+      <c r="RG1" s="1"/>
+      <c r="RH1" s="1"/>
+      <c r="RI1" s="1"/>
+      <c r="RJ1" s="1"/>
+      <c r="RK1" s="1"/>
+      <c r="RL1" s="1"/>
+      <c r="RM1" s="1"/>
+      <c r="RN1" s="1"/>
+      <c r="RO1" s="1"/>
+      <c r="RP1" s="1"/>
+      <c r="RQ1" s="1"/>
+      <c r="RR1" s="1"/>
+      <c r="RS1" s="1"/>
+      <c r="RT1" s="1"/>
+      <c r="RU1" s="1"/>
+      <c r="RV1" s="1"/>
+      <c r="RW1" s="1"/>
+      <c r="RX1" s="1"/>
+      <c r="RY1" s="1"/>
+      <c r="RZ1" s="1"/>
+      <c r="SA1" s="1"/>
+      <c r="SB1" s="1"/>
+      <c r="SC1" s="1"/>
+      <c r="SD1" s="1"/>
+      <c r="SE1" s="1"/>
+      <c r="SF1" s="1"/>
+      <c r="SG1" s="1"/>
+      <c r="SH1" s="1"/>
+      <c r="SI1" s="1"/>
+      <c r="SJ1" s="1"/>
+      <c r="SK1" s="1"/>
+      <c r="SL1" s="1"/>
+      <c r="SM1" s="1"/>
+      <c r="SN1" s="1"/>
+      <c r="SO1" s="1"/>
+      <c r="SP1" s="1"/>
+      <c r="SQ1" s="1"/>
+      <c r="SR1" s="1"/>
+      <c r="SS1" s="1"/>
+      <c r="ST1" s="1"/>
+      <c r="SU1" s="1"/>
+      <c r="SV1" s="1"/>
+      <c r="SW1" s="1"/>
+      <c r="SX1" s="1"/>
+      <c r="SY1" s="1"/>
+      <c r="SZ1" s="1"/>
+      <c r="TA1" s="1"/>
+      <c r="TB1" s="1"/>
+      <c r="TC1" s="1"/>
+      <c r="TD1" s="1"/>
+      <c r="TE1" s="1"/>
+      <c r="TF1" s="1"/>
+      <c r="TG1" s="1"/>
+      <c r="TH1" s="1"/>
+      <c r="TI1" s="1"/>
+      <c r="TJ1" s="1"/>
+      <c r="TK1" s="1"/>
+      <c r="TL1" s="1"/>
+      <c r="TM1" s="1"/>
+      <c r="TN1" s="1"/>
+      <c r="TO1" s="1"/>
+      <c r="TP1" s="1"/>
+      <c r="TQ1" s="1"/>
+      <c r="TR1" s="1"/>
+      <c r="TS1" s="1"/>
+      <c r="TT1" s="1"/>
+      <c r="TU1" s="1"/>
+      <c r="TV1" s="1"/>
+      <c r="TW1" s="1"/>
+      <c r="TX1" s="1"/>
+      <c r="TY1" s="1"/>
+      <c r="TZ1" s="1"/>
+      <c r="UA1" s="1"/>
+      <c r="UB1" s="1"/>
+      <c r="UC1" s="1"/>
+      <c r="UD1" s="1"/>
+      <c r="UE1" s="1"/>
+      <c r="UF1" s="1"/>
+      <c r="UG1" s="1"/>
+      <c r="UH1" s="1"/>
+      <c r="UI1" s="1"/>
+      <c r="UJ1" s="1"/>
+      <c r="UK1" s="1"/>
+      <c r="UL1" s="1"/>
+      <c r="UM1" s="1"/>
+      <c r="UN1" s="1"/>
+      <c r="UO1" s="1"/>
+      <c r="UP1" s="1"/>
+      <c r="UQ1" s="1"/>
+      <c r="UR1" s="1"/>
+      <c r="US1" s="1"/>
+      <c r="UT1" s="1"/>
+      <c r="UU1" s="1"/>
+      <c r="UV1" s="1"/>
+      <c r="UW1" s="1"/>
+      <c r="UX1" s="1"/>
+      <c r="UY1" s="1"/>
+      <c r="UZ1" s="1"/>
+      <c r="VA1" s="1"/>
+      <c r="VB1" s="1"/>
+      <c r="VC1" s="1"/>
+      <c r="VD1" s="1"/>
+      <c r="VE1" s="1"/>
+      <c r="VF1" s="1"/>
+      <c r="VG1" s="1"/>
+      <c r="VH1" s="1"/>
+      <c r="VI1" s="1"/>
+      <c r="VJ1" s="1"/>
+      <c r="VK1" s="1"/>
+      <c r="VL1" s="1"/>
+      <c r="VM1" s="1"/>
+      <c r="VN1" s="1"/>
+      <c r="VO1" s="1"/>
+      <c r="VP1" s="1"/>
+      <c r="VQ1" s="1"/>
+      <c r="VR1" s="1"/>
+      <c r="VS1" s="1"/>
+      <c r="VT1" s="1"/>
+      <c r="VU1" s="1"/>
+      <c r="VV1" s="1"/>
+      <c r="VW1" s="1"/>
+      <c r="VX1" s="1"/>
+      <c r="VY1" s="1"/>
+      <c r="VZ1" s="1"/>
+      <c r="WA1" s="1"/>
+      <c r="WB1" s="1"/>
+      <c r="WC1" s="1"/>
+      <c r="WD1" s="1"/>
+      <c r="WE1" s="1"/>
+      <c r="WF1" s="1"/>
+      <c r="WG1" s="1"/>
+      <c r="WH1" s="1"/>
+      <c r="WI1" s="1"/>
+      <c r="WJ1" s="1"/>
+      <c r="WK1" s="1"/>
+      <c r="WL1" s="1"/>
+      <c r="WM1" s="1"/>
+      <c r="WN1" s="1"/>
+      <c r="WO1" s="1"/>
+      <c r="WP1" s="1"/>
+      <c r="WQ1" s="1"/>
+      <c r="WR1" s="1"/>
+      <c r="WS1" s="1"/>
+      <c r="WT1" s="1"/>
+      <c r="WU1" s="1"/>
+      <c r="WV1" s="1"/>
+      <c r="WW1" s="1"/>
+      <c r="WX1" s="1"/>
+      <c r="WY1" s="1"/>
+      <c r="WZ1" s="1"/>
+      <c r="XA1" s="1"/>
+      <c r="XB1" s="1"/>
+      <c r="XC1" s="1"/>
+      <c r="XD1" s="1"/>
+      <c r="XE1" s="1"/>
+      <c r="XF1" s="1"/>
+      <c r="XG1" s="1"/>
+      <c r="XH1" s="1"/>
+      <c r="XI1" s="1"/>
+      <c r="XJ1" s="1"/>
+      <c r="XK1" s="1"/>
+      <c r="XL1" s="1"/>
+      <c r="XM1" s="1"/>
+      <c r="XN1" s="1"/>
+      <c r="XO1" s="1"/>
+      <c r="XP1" s="1"/>
+      <c r="XQ1" s="1"/>
+      <c r="XR1" s="1"/>
+      <c r="XS1" s="1"/>
+      <c r="XT1" s="1"/>
+      <c r="XU1" s="1"/>
+      <c r="XV1" s="1"/>
+      <c r="XW1" s="1"/>
+      <c r="XX1" s="1"/>
+      <c r="XY1" s="1"/>
+      <c r="XZ1" s="1"/>
+      <c r="YA1" s="1"/>
+      <c r="YB1" s="1"/>
+      <c r="YC1" s="1"/>
+      <c r="YD1" s="1"/>
+      <c r="YE1" s="1"/>
+      <c r="YF1" s="1"/>
+      <c r="YG1" s="1"/>
+      <c r="YH1" s="1"/>
+      <c r="YI1" s="1"/>
+      <c r="YJ1" s="1"/>
+      <c r="YK1" s="1"/>
+      <c r="YL1" s="1"/>
+      <c r="YM1" s="1"/>
+      <c r="YN1" s="1"/>
+      <c r="YO1" s="1"/>
+      <c r="YP1" s="1"/>
+      <c r="YQ1" s="1"/>
+      <c r="YR1" s="1"/>
+      <c r="YS1" s="1"/>
+      <c r="YT1" s="1"/>
+      <c r="YU1" s="1"/>
+      <c r="YV1" s="1"/>
+      <c r="YW1" s="1"/>
+      <c r="YX1" s="1"/>
+      <c r="YY1" s="1"/>
+      <c r="YZ1" s="1"/>
+      <c r="ZA1" s="1"/>
+      <c r="ZB1" s="1"/>
+      <c r="ZC1" s="1"/>
+      <c r="ZD1" s="1"/>
+      <c r="ZE1" s="1"/>
+      <c r="ZF1" s="1"/>
+      <c r="ZG1" s="1"/>
+      <c r="ZH1" s="1"/>
+      <c r="ZI1" s="1"/>
+      <c r="ZJ1" s="1"/>
+      <c r="ZK1" s="1"/>
+      <c r="ZL1" s="1"/>
+      <c r="ZM1" s="1"/>
+      <c r="ZN1" s="1"/>
+      <c r="ZO1" s="1"/>
+      <c r="ZP1" s="1"/>
+      <c r="ZQ1" s="1"/>
+      <c r="ZR1" s="1"/>
+      <c r="ZS1" s="1"/>
+      <c r="ZT1" s="1"/>
+      <c r="ZU1" s="1"/>
+      <c r="ZV1" s="1"/>
+      <c r="ZW1" s="1"/>
+      <c r="ZX1" s="1"/>
+      <c r="ZY1" s="1"/>
+      <c r="ZZ1" s="1"/>
+      <c r="AAA1" s="1"/>
+      <c r="AAB1" s="1"/>
+      <c r="AAC1" s="1"/>
+      <c r="AAD1" s="1"/>
+      <c r="AAE1" s="1"/>
+      <c r="AAF1" s="1"/>
+      <c r="AAG1" s="1"/>
+      <c r="AAH1" s="1"/>
+      <c r="AAI1" s="1"/>
+      <c r="AAJ1" s="1"/>
+      <c r="AAK1" s="1"/>
+      <c r="AAL1" s="1"/>
+      <c r="AAM1" s="1"/>
+      <c r="AAN1" s="1"/>
+      <c r="AAO1" s="1"/>
+      <c r="AAP1" s="1"/>
+      <c r="AAQ1" s="1"/>
+      <c r="AAR1" s="1"/>
+      <c r="AAS1" s="1"/>
+      <c r="AAT1" s="1"/>
+      <c r="AAU1" s="1"/>
+      <c r="AAV1" s="1"/>
+      <c r="AAW1" s="1"/>
+      <c r="AAX1" s="1"/>
+      <c r="AAY1" s="1"/>
+      <c r="AAZ1" s="1"/>
+      <c r="ABA1" s="1"/>
+      <c r="ABB1" s="1"/>
+      <c r="ABC1" s="1"/>
+      <c r="ABD1" s="1"/>
+      <c r="ABE1" s="1"/>
+      <c r="ABF1" s="1"/>
+      <c r="ABG1" s="1"/>
+      <c r="ABH1" s="1"/>
+      <c r="ABI1" s="1"/>
+      <c r="ABJ1" s="1"/>
+      <c r="ABK1" s="1"/>
+      <c r="ABL1" s="1"/>
+      <c r="ABM1" s="1"/>
+      <c r="ABN1" s="1"/>
+      <c r="ABO1" s="1"/>
+      <c r="ABP1" s="1"/>
+      <c r="ABQ1" s="1"/>
+      <c r="ABR1" s="1"/>
+      <c r="ABS1" s="1"/>
+      <c r="ABT1" s="1"/>
+      <c r="ABU1" s="1"/>
+      <c r="ABV1" s="1"/>
+      <c r="ABW1" s="1"/>
+      <c r="ABX1" s="1"/>
+      <c r="ABY1" s="1"/>
+      <c r="ABZ1" s="1"/>
+      <c r="ACA1" s="1"/>
+      <c r="ACB1" s="1"/>
+      <c r="ACC1" s="1"/>
+      <c r="ACD1" s="1"/>
+      <c r="ACE1" s="1"/>
+      <c r="ACF1" s="1"/>
+      <c r="ACG1" s="1"/>
+      <c r="ACH1" s="1"/>
+      <c r="ACI1" s="1"/>
+      <c r="ACJ1" s="1"/>
+      <c r="ACK1" s="1"/>
+      <c r="ACL1" s="1"/>
+      <c r="ACM1" s="1"/>
+      <c r="ACN1" s="1"/>
+      <c r="ACO1" s="1"/>
+      <c r="ACP1" s="1"/>
+      <c r="ACQ1" s="1"/>
+      <c r="ACR1" s="1"/>
+      <c r="ACS1" s="1"/>
+      <c r="ACT1" s="1"/>
+      <c r="ACU1" s="1"/>
+      <c r="ACV1" s="1"/>
+      <c r="ACW1" s="1"/>
+      <c r="ACX1" s="1"/>
+      <c r="ACY1" s="1"/>
+      <c r="ACZ1" s="1"/>
+      <c r="ADA1" s="1"/>
+      <c r="ADB1" s="1"/>
+      <c r="ADC1" s="1"/>
+      <c r="ADD1" s="1"/>
+      <c r="ADE1" s="1"/>
+      <c r="ADF1" s="1"/>
+      <c r="ADG1" s="1"/>
+      <c r="ADH1" s="1"/>
+      <c r="ADI1" s="1"/>
+      <c r="ADJ1" s="1"/>
+      <c r="ADK1" s="1"/>
+      <c r="ADL1" s="1"/>
+      <c r="ADM1" s="1"/>
+      <c r="ADN1" s="1"/>
+      <c r="ADO1" s="1"/>
+      <c r="ADP1" s="1"/>
+      <c r="ADQ1" s="1"/>
+      <c r="ADR1" s="1"/>
+      <c r="ADS1" s="1"/>
+      <c r="ADT1" s="1"/>
+      <c r="ADU1" s="1"/>
+      <c r="ADV1" s="1"/>
+      <c r="ADW1" s="1"/>
+      <c r="ADX1" s="1"/>
+      <c r="ADY1" s="1"/>
+      <c r="ADZ1" s="1"/>
+      <c r="AEA1" s="1"/>
+      <c r="AEB1" s="1"/>
+      <c r="AEC1" s="1"/>
+      <c r="AED1" s="1"/>
+      <c r="AEE1" s="1"/>
+      <c r="AEF1" s="1"/>
+      <c r="AEG1" s="1"/>
+      <c r="AEH1" s="1"/>
+      <c r="AEI1" s="1"/>
+      <c r="AEJ1" s="1"/>
+      <c r="AEK1" s="1"/>
+      <c r="AEL1" s="1"/>
+      <c r="AEM1" s="1"/>
+      <c r="AEN1" s="1"/>
+      <c r="AEO1" s="1"/>
+      <c r="AEP1" s="1"/>
+      <c r="AEQ1" s="1"/>
+      <c r="AER1" s="1"/>
+      <c r="AES1" s="1"/>
+      <c r="AET1" s="1"/>
+      <c r="AEU1" s="1"/>
+      <c r="AEV1" s="1"/>
+      <c r="AEW1" s="1"/>
+      <c r="AEX1" s="1"/>
+      <c r="AEY1" s="1"/>
+      <c r="AEZ1" s="1"/>
+      <c r="AFA1" s="1"/>
+      <c r="AFB1" s="1"/>
+      <c r="AFC1" s="1"/>
+      <c r="AFD1" s="1"/>
+      <c r="AFE1" s="1"/>
+      <c r="AFF1" s="1"/>
+      <c r="AFG1" s="1"/>
+      <c r="AFH1" s="1"/>
+      <c r="AFI1" s="1"/>
+      <c r="AFJ1" s="1"/>
+      <c r="AFK1" s="1"/>
+      <c r="AFL1" s="1"/>
+      <c r="AFM1" s="1"/>
+      <c r="AFN1" s="1"/>
+      <c r="AFO1" s="1"/>
+      <c r="AFP1" s="1"/>
+      <c r="AFQ1" s="1"/>
+      <c r="AFR1" s="1"/>
+      <c r="AFS1" s="1"/>
+      <c r="AFT1" s="1"/>
+      <c r="AFU1" s="1"/>
+      <c r="AFV1" s="1"/>
+      <c r="AFW1" s="1"/>
+      <c r="AFX1" s="1"/>
+      <c r="AFY1" s="1"/>
+      <c r="AFZ1" s="1"/>
+      <c r="AGA1" s="1"/>
+      <c r="AGB1" s="1"/>
+      <c r="AGC1" s="1"/>
+      <c r="AGD1" s="1"/>
+      <c r="AGE1" s="1"/>
+      <c r="AGF1" s="1"/>
+      <c r="AGG1" s="1"/>
+      <c r="AGH1" s="1"/>
+      <c r="AGI1" s="1"/>
+      <c r="AGJ1" s="1"/>
+      <c r="AGK1" s="1"/>
+      <c r="AGL1" s="1"/>
+      <c r="AGM1" s="1"/>
+      <c r="AGN1" s="1"/>
+      <c r="AGO1" s="1"/>
+      <c r="AGP1" s="1"/>
+      <c r="AGQ1" s="1"/>
+      <c r="AGR1" s="1"/>
+      <c r="AGS1" s="1"/>
+      <c r="AGT1" s="1"/>
+      <c r="AGU1" s="1"/>
+      <c r="AGV1" s="1"/>
+      <c r="AGW1" s="1"/>
+      <c r="AGX1" s="1"/>
+      <c r="AGY1" s="1"/>
+      <c r="AGZ1" s="1"/>
+      <c r="AHA1" s="1"/>
+      <c r="AHB1" s="1"/>
+      <c r="AHC1" s="1"/>
+      <c r="AHD1" s="1"/>
+      <c r="AHE1" s="1"/>
+      <c r="AHF1" s="1"/>
+      <c r="AHG1" s="1"/>
+      <c r="AHH1" s="1"/>
+      <c r="AHI1" s="1"/>
+      <c r="AHJ1" s="1"/>
+      <c r="AHK1" s="1"/>
+      <c r="AHL1" s="1"/>
+      <c r="AHM1" s="1"/>
+      <c r="AHN1" s="1"/>
+      <c r="AHO1" s="1"/>
+      <c r="AHP1" s="1"/>
+      <c r="AHQ1" s="1"/>
+      <c r="AHR1" s="1"/>
+      <c r="AHS1" s="1"/>
+      <c r="AHT1" s="1"/>
+      <c r="AHU1" s="1"/>
+      <c r="AHV1" s="1"/>
+      <c r="AHW1" s="1"/>
+      <c r="AHX1" s="1"/>
+      <c r="AHY1" s="1"/>
+      <c r="AHZ1" s="1"/>
+      <c r="AIA1" s="1"/>
+      <c r="AIB1" s="1"/>
+      <c r="AIC1" s="1"/>
+      <c r="AID1" s="1"/>
+      <c r="AIE1" s="1"/>
+      <c r="AIF1" s="1"/>
+      <c r="AIG1" s="1"/>
+      <c r="AIH1" s="1"/>
+      <c r="AII1" s="1"/>
+      <c r="AIJ1" s="1"/>
+      <c r="AIK1" s="1"/>
+      <c r="AIL1" s="1"/>
+      <c r="AIM1" s="1"/>
+      <c r="AIN1" s="1"/>
+      <c r="AIO1" s="1"/>
+      <c r="AIP1" s="1"/>
+      <c r="AIQ1" s="1"/>
+      <c r="AIR1" s="1"/>
+      <c r="AIS1" s="1"/>
+      <c r="AIT1" s="1"/>
+      <c r="AIU1" s="1"/>
+      <c r="AIV1" s="1"/>
+      <c r="AIW1" s="1"/>
+      <c r="AIX1" s="1"/>
+      <c r="AIY1" s="1"/>
+      <c r="AIZ1" s="1"/>
+      <c r="AJA1" s="1"/>
+      <c r="AJB1" s="1"/>
+      <c r="AJC1" s="1"/>
+      <c r="AJD1" s="1"/>
+      <c r="AJE1" s="1"/>
+      <c r="AJF1" s="1"/>
+      <c r="AJG1" s="1"/>
+      <c r="AJH1" s="1"/>
+      <c r="AJI1" s="1"/>
+      <c r="AJJ1" s="1"/>
+      <c r="AJK1" s="1"/>
+      <c r="AJL1" s="1"/>
+      <c r="AJM1" s="1"/>
+      <c r="AJN1" s="1"/>
+      <c r="AJO1" s="1"/>
+      <c r="AJP1" s="1"/>
+      <c r="AJQ1" s="1"/>
+      <c r="AJR1" s="1"/>
+      <c r="AJS1" s="1"/>
+      <c r="AJT1" s="1"/>
+      <c r="AJU1" s="1"/>
+      <c r="AJV1" s="1"/>
+      <c r="AJW1" s="1"/>
+      <c r="AJX1" s="1"/>
+      <c r="AJY1" s="1"/>
+      <c r="AJZ1" s="1"/>
+      <c r="AKA1" s="1"/>
+      <c r="AKB1" s="1"/>
+      <c r="AKC1" s="1"/>
+      <c r="AKD1" s="1"/>
+      <c r="AKE1" s="1"/>
+      <c r="AKF1" s="1"/>
+      <c r="AKG1" s="1"/>
+      <c r="AKH1" s="1"/>
+      <c r="AKI1" s="1"/>
+      <c r="AKJ1" s="1"/>
+      <c r="AKK1" s="1"/>
+      <c r="AKL1" s="1"/>
+      <c r="AKM1" s="1"/>
+      <c r="AKN1" s="1"/>
+      <c r="AKO1" s="1"/>
+      <c r="AKP1" s="1"/>
+      <c r="AKQ1" s="1"/>
+      <c r="AKR1" s="1"/>
+      <c r="AKS1" s="1"/>
+      <c r="AKT1" s="1"/>
+      <c r="AKU1" s="1"/>
+      <c r="AKV1" s="1"/>
+      <c r="AKW1" s="1"/>
+      <c r="AKX1" s="1"/>
+      <c r="AKY1" s="1"/>
+      <c r="AKZ1" s="1"/>
+      <c r="ALA1" s="1"/>
+      <c r="ALB1" s="1"/>
+      <c r="ALC1" s="1"/>
+      <c r="ALD1" s="1"/>
+      <c r="ALE1" s="1"/>
+      <c r="ALF1" s="1"/>
+      <c r="ALG1" s="1"/>
+      <c r="ALH1" s="1"/>
+      <c r="ALI1" s="1"/>
+      <c r="ALJ1" s="1"/>
+      <c r="ALK1" s="1"/>
+      <c r="ALL1" s="1"/>
+      <c r="ALM1" s="1"/>
+      <c r="ALN1" s="1"/>
+      <c r="ALO1" s="1"/>
+      <c r="ALP1" s="1"/>
+      <c r="ALQ1" s="1"/>
+      <c r="ALR1" s="1"/>
+      <c r="ALS1" s="1"/>
+      <c r="ALT1" s="1"/>
+      <c r="ALU1" s="1"/>
+      <c r="ALV1" s="1"/>
+      <c r="ALW1" s="1"/>
+      <c r="ALX1" s="1"/>
+      <c r="ALY1" s="1"/>
+      <c r="ALZ1" s="1"/>
+      <c r="AMA1" s="1"/>
+      <c r="AMB1" s="1"/>
+      <c r="AMC1" s="1"/>
+      <c r="AMD1" s="1"/>
+      <c r="AME1" s="1"/>
+      <c r="AMF1" s="1"/>
+      <c r="AMG1" s="1"/>
+      <c r="AMH1" s="1"/>
+      <c r="AMI1" s="1"/>
+      <c r="AMJ1" s="4"/>
     </row>
     <row r="2" spans="1:1024" ht="21">
       <c r="A2" s="1" t="s">
@@ -2005,7 +3316,7 @@
       <c r="AMI2" s="1"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" spans="1:1024" s="14" customFormat="1" ht="104" outlineLevel="1">
+    <row r="3" spans="1:1024" s="14" customFormat="1" ht="102" hidden="1" outlineLevel="1">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -3039,7 +4350,7 @@
       <c r="AMI3" s="10"/>
       <c r="AMJ3" s="13"/>
     </row>
-    <row r="4" spans="1:1024" ht="13">
+    <row r="4" spans="1:1024" collapsed="1">
       <c r="E4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="8"/>
@@ -3220,7 +4531,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="14" t="str">
-        <f t="shared" ref="B15:B24" si="1">C15&amp;" / "&amp;D15</f>
+        <f t="shared" ref="B15:B23" si="1">C15&amp;" / "&amp;D15</f>
         <v>F / Choklad</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -3391,109 +4702,109 @@
     </row>
     <row r="24" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B24" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>P / Godis_restnoterad</v>
+        <f>C24&amp;" / "&amp;D24</f>
+        <v>F / Torrvara_div</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="14" t="s">
         <v>40</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="F24" s="16"/>
       <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="14" t="str">
-        <f>C25&amp;" / "&amp;D25</f>
-        <v>F / Torrvara_div</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="F25" s="16"/>
       <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="14" t="str">
+        <f>C26&amp;" / "&amp;D26</f>
+        <v>P / Frys</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="F26" s="16"/>
-      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="14" t="str">
         <f>C27&amp;" / "&amp;D27</f>
-        <v>P / Frys</v>
+        <v>P / Glögg</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="16"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="14" t="str">
         <f>C28&amp;" / "&amp;D28</f>
-        <v>P / Glögg</v>
+        <v>P / Hemlagat_div</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" s="16"/>
       <c r="I28" s="15"/>
     </row>
     <row r="29" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="14" t="str">
-        <f>C29&amp;" / "&amp;D29</f>
-        <v>P / Hemlagat_div</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="F29" s="16"/>
       <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="14" t="str">
+        <f>C30&amp;" / "&amp;D30</f>
+        <v>P / Konserv_söt</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F30" s="16"/>
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="14" t="str">
         <f>C31&amp;" / "&amp;D31</f>
-        <v>P / Konserv_söt</v>
+        <v>P / Mat_div</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>14</v>
@@ -3509,11 +4820,11 @@
     </row>
     <row r="32" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" s="14" t="str">
         <f>C32&amp;" / "&amp;D32</f>
-        <v>P / Mat_div</v>
+        <v>P / Dricka</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>14</v>
@@ -3521,24 +4832,24 @@
       <c r="D32" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>51</v>
-      </c>
       <c r="F32" s="16"/>
       <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" s="14" t="str">
-        <f>C33&amp;" / "&amp;D33</f>
-        <v>P / Dricka</v>
+        <f t="shared" ref="B33:B44" si="2">C33&amp;" / "&amp;D33</f>
+        <v>P / Färskvara_kolla_vikten</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>52</v>
       </c>
       <c r="F33" s="16"/>
@@ -3546,11 +4857,11 @@
     </row>
     <row r="34" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" s="14" t="str">
-        <f t="shared" ref="B34:B45" si="2">C34&amp;" / "&amp;D34</f>
-        <v>P / Färskvara_kolla_vikten</v>
+        <f t="shared" si="2"/>
+        <v>P / Konserv_ej_söt</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>14</v>
@@ -3558,19 +4869,18 @@
       <c r="D34" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="16"/>
-      <c r="I34" s="15"/>
     </row>
     <row r="35" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>P / Konserv_ej_söt</v>
+        <v>P / Tub</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>14</v>
@@ -3578,18 +4888,19 @@
       <c r="D35" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="15" t="s">
         <v>56</v>
       </c>
       <c r="F35" s="16"/>
+      <c r="I35" s="15"/>
     </row>
     <row r="36" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>P / Tub</v>
+        <v>P / Sill_div</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>14</v>
@@ -3597,74 +4908,74 @@
       <c r="D36" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="F36" s="16"/>
       <c r="I36" s="15"/>
     </row>
     <row r="37" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>P / Sill_div</v>
+        <v>P / Sill_liten_burk</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>P / Sill_liten_burk</v>
+        <v>P / Sill_stor_burk</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F38" s="16"/>
+      <c r="I38" s="15"/>
     </row>
     <row r="39" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>P / Sill_stor_burk</v>
+        <v>P / Korv_kött</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F39" s="16"/>
       <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>P / Korv_kött</v>
+        <v>P / Plastask_liten</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F40" s="16"/>
@@ -3672,11 +4983,11 @@
     </row>
     <row r="41" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>P / Plastask_liten</v>
+        <v>P / Plastask_stor</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>14</v>
@@ -3692,36 +5003,36 @@
     </row>
     <row r="42" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>P / Plastask_stor</v>
+        <v>P / Smör</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="F42" s="16"/>
       <c r="I42" s="15"/>
     </row>
     <row r="43" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>P / Smör</v>
+        <v>P / Mjukost</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F43" s="16"/>
@@ -3729,11 +5040,11 @@
     </row>
     <row r="44" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B44" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>P / Mjukost</v>
+        <v>P / Kyl_div</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>14</v>
@@ -3748,125 +5059,105 @@
       <c r="I44" s="15"/>
     </row>
     <row r="45" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>P / Kyl_div</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="F45" s="16"/>
       <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="14" t="str">
+        <f>C46&amp;" / "&amp;D46</f>
+        <v>P / Ost</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="F46" s="16"/>
       <c r="I46" s="15"/>
+      <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="14" t="str">
-        <f>C47&amp;" / "&amp;D47</f>
-        <v>P / Ost</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>73</v>
-      </c>
       <c r="F47" s="16"/>
       <c r="I47" s="15"/>
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="14" t="str">
+        <f t="shared" ref="B48:B51" si="3">C48&amp;" / "&amp;D48</f>
+        <v>C / Julpynt</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="F48" s="16"/>
       <c r="I48" s="15"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B49" s="14" t="str">
-        <f t="shared" ref="B49:B52" si="3">C49&amp;" / "&amp;D49</f>
-        <v>C / Julpynt</v>
+        <f t="shared" si="3"/>
+        <v>C / Sverige</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>74</v>
       </c>
       <c r="F49" s="16"/>
       <c r="I49" s="15"/>
-      <c r="K49" s="20"/>
-    </row>
-    <row r="50" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="50" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>C / Sverige</v>
+        <v>C / Textil</v>
       </c>
       <c r="C50" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="F50" s="16"/>
-      <c r="I50" s="15"/>
-    </row>
-    <row r="51" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="B51" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>C / Textil</v>
+        <v>C / Böcker</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F51" s="16"/>
     </row>
-    <row r="52" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>C / Böcker</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" s="16"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B34:F45">
-    <sortCondition ref="C34:C45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B33:F44">
+    <sortCondition ref="C33:C44"/>
   </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -3877,6 +5168,233 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1270A1-398D-4608-93C1-D7B79AD468C9}">
+  <dimension ref="D1:V15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" customWidth="1"/>
+    <col min="16" max="16" width="40.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:22" ht="13.5" thickBot="1"/>
+    <row r="2" spans="4:22" ht="18.75">
+      <c r="L2" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="25"/>
+    </row>
+    <row r="3" spans="4:22" s="21" customFormat="1" ht="18.75">
+      <c r="D3" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="28"/>
+      <c r="P3" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="31"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="34"/>
+    </row>
+    <row r="4" spans="4:22" s="21" customFormat="1" ht="18.75">
+      <c r="D4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="35"/>
+      <c r="P4" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="31"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="34"/>
+    </row>
+    <row r="5" spans="4:22" s="21" customFormat="1" ht="15" thickBot="1">
+      <c r="D5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="38"/>
+    </row>
+    <row r="6" spans="4:22" s="21" customFormat="1" ht="14.25">
+      <c r="D6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+    </row>
+    <row r="7" spans="4:22" s="21" customFormat="1" ht="14.25">
+      <c r="D7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+    </row>
+    <row r="8" spans="4:22" s="21" customFormat="1" ht="14.25">
+      <c r="D8" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+    </row>
+    <row r="9" spans="4:22" s="21" customFormat="1" ht="14.25">
+      <c r="D9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+    </row>
+    <row r="11" spans="4:22" ht="13.5" thickBot="1"/>
+    <row r="12" spans="4:22" ht="18.75">
+      <c r="L12" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="25"/>
+    </row>
+    <row r="13" spans="4:22" ht="18.75">
+      <c r="M13" s="26"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="S13" s="31"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="34"/>
+    </row>
+    <row r="14" spans="4:22" ht="18.75">
+      <c r="M14" s="26"/>
+      <c r="N14" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="42"/>
+      <c r="P14" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="S14" s="31"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="34"/>
+    </row>
+    <row r="15" spans="4:22" ht="13.5" thickBot="1">
+      <c r="M15" s="36"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f0785fb4-7cd3-40c0-8122-f25147720244}" enabled="1" method="Standard" siteId="{3619ea90-fa6e-40bf-aa11-2d4a18ad7689}" removed="0"/>
